--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\OneDrive - Drexel University\Study\CS projects\Stock-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE589AFE-9126-428C-8252-699C9AF37923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFFDBE-0434-4797-B544-4D5F52A415F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StockData" sheetId="2" r:id="rId1"/>
-    <sheet name="StockData (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="StockData (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">StockData!$A$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'StockData (2)'!$A$1:$H$977</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'StockData (2)'!$A$1:$H$977</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -205,9 +203,6 @@
     <t>WFC</t>
   </si>
   <si>
-    <t>ExternalData_1</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -351,14 +346,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" firstBackgroundRefresh="1" connectionId="1" xr16:uid="{EBDC1452-8CB8-400B-900A-4A134562283F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh>
-    <queryTableFields/>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{6640B77A-CBD5-4CCD-9E17-5C33C7CE68E1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
@@ -728,29 +715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4CF8A5-997C-4734-B775-F2B88501BC55}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448C5962-6A70-4077-BB99-715C88679342}">
   <dimension ref="A1:H977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -26176,7 +26145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ977"/>
   <sheetViews>
